--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_92.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_92.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,614 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_46</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1620967741935484</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Eb:7', 'Bb:7']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_123</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2660098522167488</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:7', 'E:7']]</t>
+          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(15.47, 20.95)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(29.7717, 35.28644)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:08.413696', '0:00:11.072593')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/B', 'A:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07672413793103448</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.34, 2.34)]</t>
+          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:16.580000', '0:00:22.660000'), ('0:00:07.140000', '0:00:14.340000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:23.040000', '0:00:26.520000'), ('0:00:12.560000', '0:00:17.200000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2318840579710145</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C', 'C/7', 'C/6']]</t>
-        </is>
+          <t>jaah_32</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1408083441981747</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C', 'C/7', 'C/b7']]</t>
+          <t>[['G', 'G', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(69.901, 77.903)]</t>
+          <t>[['B', 'B', 'B']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(52.386, 56.294)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:03.010000', '0:00:07.270000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:01.421269', '0:00:22.168299')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_27</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.03586956521739131</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G', 'C:min', 'C:min']]</t>
-        </is>
+          <t>isophonics_196</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2158018867924528</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A', 'D:min', 'D:min']]</t>
+          <t>[['D', 'G/5', 'D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(16.38, 23.16)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(35.155014, 49.662244)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:19.708503', '0:00:25.501882')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09646739130434782</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min/b3']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(5.67204, 8.841564)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(3.44, 7.08)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:16.260000', '0:00:21.140000'), ('0:00:36.600000', '0:00:39')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:12.260000', '0:00:25.040000'), ('0:01:05.260000', '0:01:11.040000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1712473572938689</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.8, 2.88)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:10.100000', '0:01:03.440000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:maj/B', 'B:7', 'E:maj/B'], ['D#:min/A#', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj/F'], ['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(98.06, 105.6), (134.22, 139.56)]</t>
+          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(87.28, 92.66), (37.96, 44.8)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:27.160000', '0:00:38.460000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:40.740000', '0:02:01.400000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(37.995918, 49.466575)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(117.54, 122.7)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:00:19.140000', '0:00:24.780000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:07.900000', '0:00:20.520000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1517241379310345</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5428571428571429</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(19.98, 27.18)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(14.84, 22.2)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:07.525011', '0:00:14.746417')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1020408163265306</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj']]</t>
+          <t>[['F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(12.318208, 18.355396)]</t>
+          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(60.72, 68.12)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:41.895260', '0:00:54.712675')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:59.020000', '0:01:06.200000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2019230769230769</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D/3', 'G', 'D', 'D/2']]</t>
-        </is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'A']]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(57.251357, 74.388469)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(33.698526, 42.916848)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:08.340000', '0:01:20')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:03.220000', '0:00:18.300000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_13</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08599419448476053</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E', 'A/3']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(45.712, 51.648)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(7.87, 14.66)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:05.700000', '0:00:19.720000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:08.340000', '0:00:26.400000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5397727272727273</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C', 'G', 'D']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(58.04, 71.12)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(7.102281, 24.401147)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1053361053361053</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Ab/5', 'Eb', 'Bb/3', 'C:min'], ['Ab/5', 'Eb', 'Ab/5', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'A', 'B:min'], ['G', 'D', 'G', 'D']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(22.841, 27.6), (18.978, 25.693)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(59.20524, 69.665829), (142.379117, 149.240614)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09646739130434782</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C', 'G/3', 'C']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(19.000294, 29.309954)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(41.655, 46.22)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:01:20.920000', '0:01:29.040000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:16.740000', '0:01:23.980000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_89</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_59</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07900136798905609</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'F#']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G/3']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(15.880484, 21.522933)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(18.826145, 26.43068)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
